--- a/products.xlsx
+++ b/products.xlsx
@@ -1,32 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f77d448be0ee6f06/Desktop/shopify_scrapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_F25DC773A252ABDACC104887B1DE72265ADE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0126FB2A-6E64-4448-88D6-B891887BA9DE}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_11EC2E4A0B67CBECF1AE4BE4F42ED25AC59A6BB7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF5C4D36-4521-4933-AC03-4475F0B86C51}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="2115" windowWidth="21600" windowHeight="13455" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dog" sheetId="1" r:id="rId1"/>
-    <sheet name="Cat" sheetId="3" r:id="rId2"/>
+    <sheet name="Cat" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>Prodcut Name</t>
   </si>
@@ -35,6 +30,9 @@
   </si>
   <si>
     <t>Picture</t>
+  </si>
+  <si>
+    <t>Website</t>
   </si>
 </sst>
 </file>
@@ -87,6 +85,48 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="952500" cy="952500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114300" y="323850"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -352,20 +392,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="100" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -375,23 +415,28 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
+    <row r="2" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618DD5B5-B5B4-4079-BC97-4C5A62689DD0}">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -400,6 +445,9 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/products.xlsx
+++ b/products.xlsx
@@ -1,132 +1,32 @@
-
-<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f77d448be0ee6f06/Desktop/shopify_scrapping/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_11EC2E4A0B67CBECF1AE4BE4F42ED25AC59A6BB7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF5C4D36-4521-4933-AC03-4475F0B86C51}"/>
-  <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Dog" sheetId="1" r:id="rId1"/>
-    <sheet name="Cat" sheetId="2" r:id="rId2"/>
-  </sheets>
-  <calcPr calcId="0"/>
-</workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
-  <si>
-    <t>Prodcut Name</t>
-  </si>
-  <si>
-    <t>Prcie</t>
-  </si>
-  <si>
-    <t>Picture</t>
-  </si>
-  <si>
-    <t>Website</t>
-  </si>
-</sst>
-</file>
-
-<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
-</file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="952500" cy="952500"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 1" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="952500" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="114300" y="323850"/>
-          <a:ext cx="952500" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -391,66 +291,63 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="100" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col width="100" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Picture</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="99.95" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
+    <row r="2" ht="100" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>寵物自動續水籠子／飛機籠懸掛式飲水器 (500ml)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>$279.00</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://petsthing.com.hk/collections/dog/products/watering-supplies-pets-dadapet-water-bottle-500ml</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>